--- a/500all/speech_level/speeches_CHRG-114hhrg99850.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99850.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Salmon. The subcommittee will come to order.    Members will be permitted to submit written statements to be included in the official hearing record. Without objection, the hearing record will remain open for 5 calendar days to allow statements, questions, and extraneous materials for the record, subject to the length limitation in the rules.    Good afternoon. And today, the subcommittee examines the administration's Fiscal Year 2017 budget request for the East Asia and Pacific region.    As we continue into what some are calling the Asian Century, U.S. annual expenditures for East Asia and Pacific are more and more important. Having lived in and traveled extensively throughout Asia, I firmly believe this region is driving the world's future. Our trade with Asia last year was more than $1.4 trillion, and 40 percent of the world's trade passes through the South China Sea alone.    The Obama administration has pushed efforts of its Asia rebalance to facilitate U.S. engagement in the region in both security and economic advancement, yet even after all the administration's rhetoric, this bureau remains the second-smallest of the State's six regional bureaus. While an increase in high-level regional attention is important, the day-to-day resources on the ground have got to match the commitment. I look forward to the witnesses' justification of this discrepancy today.    Most Members of Congress agree with the administration's call for greater engagement with the Asia-Pacific region to stimulate closer integration among our allies and partners to promote democracy and rule of law. Congress must play an important role in this conversation, and it is imperative, especially in light of our continuing fiscal challenges, that U.S. investment in the region be both effective and efficient.    Clearly, the Asia-Pacific region faces enormous challenges. In a speech given earlier this month, Secretary of Defense Ash Carter outlined the five main challenges that the United States faces today. Two of them are situated in the Asia-Pacific. The continued provocations of North Korea's rogue regime and the threat that the South China Sea, one of the world's busiest waterways, could be militarized. Secretary Carter went on to describe the region as the single-most consequential region of the world for America's future.    On North Korea I commend Chairman Royce's leadership in increasing sanctions on this rogue regime. I would be proud to join him in that effort, and now I am eager to see the implementation of this important new law.    China's actions in the South China Sea continue to raise the risk of conflict while simultaneously jeopardizing the international rights, freedoms, and order. As China continues its alarming trend of militarizing the South China Sea, the United States must be firm in its resolve to support international norms.    While I support the freedom of navigation exercises recently conducted by the U.S. Navy, I would like to see even more strategic clarity from the administration on the issue of the South China Sea to ensure international norms and the rule of law are followed.    Resourcing diplomatic and development responses to such challenges can be especially difficult in the region because strategic priorities do not always map directly to budget priorities. We must work closely with our regional partners, who continue calls for our assistance on issues like the South China Sea through programs such as the 5-year Southeast Asia Maritime Security Initiative, which seeks to foster regional stability by improving the maritime capabilities of our partners. I hope to hear from our panel more about this initiative and others specific to the South China Sea conflict.    The region faces a plethora of additional challenges from the growing threat of radical Islamist terrorist organizations and the influence of ISIS to the difficulty of establishing a region-wide system of trade rules that are free, fair, and uphold high standards. Our trade agreements help strengthen institutions and the rule of law while deepening our ties with our trading partners and regional allies.    I continue to support the Trans-Pacific Partnership and believe it will ultimately assist in regional economic trade activity, heightened regional trade standards, and promote increased economic growth for both the U.S. and our trade partners.    I was recently at a symposium put on by the McLean Institute in Sedona, Arizona, and James Clapper was there. And I remember him saying that TPP is probably worth three aircraft carrier or is the equivalent of three aircraft carrier. I am interested in hearing the panel's thoughts on utilizing development assistance funding to bring non-TPP members closer to TPP standards.    We were also in Indonesia, and they are interested in a second round. Their President, in meeting with President Obama in January, identified that they would like to be part of a second round. Philippines is very, very interested, Taiwan. You know, it is going to be interesting to see how it all plays out, but I think all of them are looking with great anticipation for this to finally be ratified and move on and see other opportunities arise in the days and years to come.    And today, we are going to discuss the many challenges and opportunities we face in the region and the administration's commitment to the rebalance in the context of the Fiscal Year 2017 budget request for East Asia and Pacific region. Given the heightened challenges in the region, the United States must fully commit to increasing integration amongst our allies and partners and continuing to promote peace and democracy. Making sure we understand these missions from a place of organization, efficiency, and effectiveness is equally important, so I am really grateful for our witnesses' willingness to join us today.    And I would like to recognize Mr. Sherman for any comments he might have.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Sherman. Thank you.    We can all agree on the importance of the East Asia-Pacific region. It is a diverse and dynamic region. We have seen significant progress there politically. We have seen democracy in Burma or Myanmar move forward. But keep in mind, democracy is not touted as a system that necessarily protects minority rights. And the Rohingya continue to suffer, whether it is from the military or even from some of the democratic leaders in Myanmar/Burma.    The economic progress has been more than significant. World Bank says extreme poverty in the region has dropped from 29 percent in 2002 to 4 percent in 2014.    While we all agree that the region is important, I think we are going down the wrong path because we are being war hawks about some islets that remain uninhabited to this day. That is how useless they are. And we are incredibly doves when it comes to jobs for the American people. You would think that the American Government might have lost touch with the citizens it claims to represent, which I think is obvious to anyone looking at our current political system.    Looking first at these maritime disputes, we have to be careful about how we deploy our limited resources. Pivot to Asia should mean we send a trade delegation to Tokyo to say we have got to deal with this trade deficit rather than sending aircraft carriers to defend islets for Japan that they are unwilling to defend at their own cost.    Let's look at these islets. There is no oil. If there was any oil, it is not our oil. And the countries who say that it would be their oil are unwilling to increase their defense budgets but are banking on their ability to redirect our defense budget because, while our defense budget may not increase, our allocation of it to protect their islets, which have their oil but there is no oil is their best investment.    And Japan, for example, continues to have a 1 percent GDP ceiling on what they spend for their own defense.    The chairman brings up the trade agreement, as our witnesses do in their opening statement. This is a trade agreement so manifestly against American interests that everyone running for President swears they are against it even those who may think otherwise. The American people will see this agreement become law only through chicanery and trickery like ratification during a lame-duck session.    I hope that we can put enough light on this so we not only ask candidates for President where do they stand on it, but we get a clear statement from every candidate for President will they withdraw from it if chicanery is used to ratify it during the month of December of this year.    This agreement is so terrible for American working families that it is being sold as good national security policy. Suffer for your country; your country needs you. This is terrible national security policy.    First, it is a Trojan horse for China to bring its imports into the United States, goods that are admitted to be 60 percent made in China. In reality, 80 or 90 percent made in China get fast-tracked into the United States with no supervision and no tariff, a one-way free trade agreement for China.    Second, this deal puts the U.S. Government's stamp of approval on the idea that trade agreements don't control currency manipulation. So the idea that we should be so proud that we wrote the rules, no, these are Wall Street's rules that have mutilated the American middle class. We shouldn't be proud for passing them, and oh, by the way, the one rule China wanted we wrote for them even though they didn't even have to show up for the negotiations. And the key thing, the most important part of this agreement is the part that is not in it, nothing on currency manipulation.    As to North Korea, we clearly have a problem. What worries me most is that North Korea will sell fissile material or a nuclear weapon. In 2007, Israel destroyed a nuclear facility, a nuclear bomb facility in Syria. What is less well-known is that it was all North Korean equipment and technology.    North Korea was only willing to sell technology and equipment in 2007 because they didn't have very mean weapons and they needed nuclear weapons in their own belief to defend themselves from us. They now have 12 nuclear weapons. They will be developing three a year or at least enough fissile material for three a year. I don't know whether the next one goes on eBay, but I do know that the amount North Korea would demand would exceed the resources of ISIS or any other terrorist non-state actor, but Iran and other state actors would have enough money to really interest the North Koreans.    Finally, as Washington warned us, we have to avoid the tendency of many countries to go looking for dragons to slay--funny that he used the term dragon--looking for enemies we don't need.    China has domestic political problems, so they fan nationalism over islets. We do the same thing perhaps for our own political reasons. We were told that these islets, for example, sit astride trade routes involving hundreds of billions of dollars of trade. Yes, it is all trade in and out of Chinese ports, and if China had military control of these islands, they could blockade their own ports.    So we exaggerate the importance of these islets in order to meet domestic political needs. What the Pentagon needs politically most is a worthy adversary. They don't like focusing their attention on non-uniformed, asymmetrical opponents. China offers the only hope of a worthy uniformed opponent. We don't need another opponent. We need to calm down and realize these islets are islets that remain uninhabited even though they are off the coast of the most populated continent for a reason.    And I realize that our hearing today is about the State Department and a USAID budget, but the Pentagon budget follows foreign policy or at least it should, and that is the big budget we have got to worry about.    I yield back.</t>
   </si>
   <si>
@@ -73,18 +67,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Russel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Russel. Chairman Salmon, Ranking Member Sherman, members of the subcommittee, thanks very much for your leadership in supporting strong U.S. relations with the East Asia and Pacific region. Thank you also for the opportunity to testify today about our progress in the rebalance and the relevance of the President's 2017 budget request.    And, Mr. Chairman, if I may in particular thank you for your tremendous leadership of this subcommittee and your strong support for our engagement in the Asia-Pacific. You will be sorely missed in Fiscal Year 2017 when this budget is realized.    This is also the last budget for President Obama, and so I would like to start with just a quick recap of what we think we have accomplished with your support over the last 7 years and the foundation that we think that we can lay through this budget for the next administration.    First, since security starts with friends, we modernized our longstanding treaty alliances with Japan, South Korea, Australia, and the Philippines, and we forged new security partnerships at the same time that we developed existing ones with partners like Singapore and New Zealand. This makes us much more effective in addressing both conventional security threats but also other threats such as countering violent extremism, blocking the flow of foreign terrorist fighters, preventing human trafficking, and other transnational crimes.    Second, to create jobs at home and to secure our standing in the region, we stepped up economic engagement, concluding the U.S.-Korea Free Trade Agreement, revitalizing APEC, pursuing a new bilateral investment treaty with China, and most important, negotiating the Trans-Pacific Partnership, which is a new kind of economic agreement that sets high standards for protecting workers and the environment while at the same time supporting job-creating small businesses and an open internet.    Third, we have helped build up the region's institutions and support rule of law and peaceful dispute resolution. Our investments in ASEAN and the region-wide East Asia Summit have renewed confidence in American leadership and strengthened the region's ability to deal with tensions like those in the South China Sea.    Fourth, we have engaged intensely with China, investing the time to get to know its leaders, to advance cooperation, and to put a floor under the relationship so that it can withstand tensions. While serious concerns in areas like human rights and China's behavior with regard to maritime disputes with its neighbors remain, we have worked toward cooperative engagement on areas like cybersecurity, on shared proliferation concerns with Iran and North Korea, global health, climate change, and others.    Fifth, we have upgraded relations with emerging partners like Indonesia, Malaysia, Vietnam. We have importantly supported the democratic transition in Burma and promoted democracy, good governance, and universal values and human rights as an essential element of our policy.    The support and the funding provided by Congress has of course been essential, and the $1.57 billion East Asia-Pacific request for 2017 builds on these accomplishments, including by addressing maritime security concerns and promoting economic opportunities.    The $873 million in foreign assistance request supports and expands on our objectives of regional security cooperation, advancing economic growth and trade, promoting democratic development, strengthening regional institutions, as well as addressing war legacies. The other $646 million provides essential increased funding for personnel, operations, and public diplomacy to meet growing demands driven by the rebalance.    Now, contested maritime claims in Southeast Asia and destabilizing actions such as Chinese land reclamation, construction, and militarization of disputed areas make it harder for countries in the region to resolve disagreements peacefully. And the lack of maritime domain awareness also encourages trafficking, piracy, and illegal fishing.    So the President's 2017 budget request will support our work with regional partners to build their capacity to maintain free and open access to the maritime domain through enhanced maritime security capabilities and maritime domain awareness.    Thank you very much, and I look forward to answering any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr.  Salmon. Thank you, Mr. Russel.    Mr. Stivers?</t>
   </si>
   <si>
-    <t>Stivers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Stivers. Chairman Salmon, Ranking Member Sherman, distinguished members of the subcommittee, thank you for the invitation to testify today on the role of USAID in advancing U.S. foreign policy priorities in East Asia and the Pacific.    President Obama's budget request for the East Asia-Pacific region is $873 million. That is a 12 percent increase over Fiscal Year 2015. This request is in recognition that America's security and prosperity are inextricably tied to the region, and it enables us to consolidate our gains and strengthen the Asia-Pacific Rebalance policy.    In the coming years, the countries of this region are expected to continue high growth rates and play an increasingly pivotal role in world affairs. But just how this region's development and economic growth take shape is critical to our own future.    Already home to a majority of humanity, by 2030 Asia is projected to add more people than any other region, putting unprecedented pressure to provide access for energy, clean water, food, quality education, and health care.    But despite the impressive gains of the region, they continue to grapple with evermore complex development challenges, including severe economic disparities, food scarcity, urbanization, poor governance, and suffocating pollution and environmental degradation. Human trafficking continues to be an enormous problem, and an unacceptable proportion of women in the region continue to experience gender-based violence.    At USAID, our mission is to end extreme poverty and promote resilient, democratic societies while advancing our security and prosperity. At its core, the Asia-Pacific Rebalance is about strengthening our relationships not only with countries, but more specifically, with the people of the region in an effort to improve their lives.    We employ three primary approaches. First, we are pioneering a new model of development that focuses on maximizing our impact and our funding through public-private partnerships, science, innovation, and regional solutions.    Second, we are building pathways out of poverty through Global Health, Feed the Future, and Global Climate Change.    And last, we are empowering reformers to improve democratic governance and human rights. And for this reason, this budget request includes significant increases in democratic governance and human rights in almost every country in the region.    Next, a brief overview of the key countries: In Burma, the November elections resulted in the first civilian-led government in more than 50 years. USAID was proud to be the lead donor, providing $18 million in support of the election, including: Incorporating international standards in the election procedures, training poll workers, political parties, election observers; and voter education and supporting more than 300 civil society organizations. We helped digitize 33 million names from scratch into the voter list in a country with few computers and hundreds of dialects.    We know that democracy is about more than just elections though, which is why our support for this next phase of the democratic transition is so important. The people of Burma have high expectations and low capacity to deal with the challenges on almost every front. The government has prioritized issues such as national reconciliation, reform of the political power structures, economic growth, agricultural development, and health care. USAID will continue our strong support for the people of Burma on each of these priorities through our budget request.    We remain deeply concerned about the humanitarian and human rights situation in Rakhine State, and USAID continues to support vulnerable populations throughout the country, including the Rohingya.    In Cambodia, our primary goal is supporting and transitioning to a democracy that respects human rights. Civil society, while not fully respected there, has grown in vibrancy and strength in recent years thanks in part to our assistance. On food security, our Feed the Future initiative has helped increased yields and drive down malnutritional stunting in children under 5 by 21 percent in the areas where we work.    Indonesia's continued progress and democratic system set an example for its neighbors, but the country faces major governance, economic, and security challenges that could undermine its young democracy. Our anti-corruption investments have resulted in increased prosecution and the country's ranking on the Transparency International's Corruption Index has improved by 30 spots.    On health, we have helped Indonesia become polio-free. And last year's devastating forest and peat fires cost the country over $16 billion. We partnered with the U.S. Forest Service to send forest specialists, but we know that prevention is the key to solving this challenge.    USAID is supporting something called the Indonesia Palm Oil Pledge, which is an innovative commitment by the world's leading palm oil producers to transition to sustainable production.    In the Philippines, our Partnership for Growth initiative has helped address the main impediments to inclusive and sustainable growth. The results have been striking. Philippines has emerged as one of the fastest-growing economies and a more reliable trade and investment partner. And for the first time, the country received investment-grade sovereign debt ratings from three of the world's leading credit agencies. Yet, lack of formal access to land is a key driver of poverty, a driver of conflict, and an obstacle to national development.    In Vietnam, USAID supports the implementation of reforms critical to potential TPP participation, including launching a new labor program this year that will support the rights of workers and improve working conditions. In addition, USAID is focused on addressing war legacies, health and disabilities, and reducing susceptibility to climate change and natural disasters.    Mr. Chairman, committee, in an interconnected world, development plays an indispensable role alongside defense and diplomacy in advancing our security and prosperity. While we must focus on immediate crises throughout the world, it is also essential that we address the root causes of poverty, conflict, and instability, to help shape a better future for humanity. That is the heart of our work in the East Asia-Pacific region.    Thank you, and I look forward to your counsel and questions.</t>
   </si>
   <si>
@@ -184,9 +172,6 @@
     <t>412395</t>
   </si>
   <si>
-    <t>Mo Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Brooks. I hope it will be short.    I am looking at what committee staff has given me, and tell me if I have got it correct, that this hearing does not include anything in the Near East but rather it is limited to East Asia and the Pacific?</t>
   </si>
   <si>
@@ -239,9 +224,6 @@
   </si>
   <si>
     <t>412272</t>
-  </si>
-  <si>
-    <t>Gerald E. Connolly</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr.  Connolly. Mr. Chairman, I promise I am just going to take a minute----</t>
@@ -802,11 +784,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -826,13 +806,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -854,11 +832,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -878,13 +854,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -906,11 +880,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -930,13 +902,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -958,11 +928,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -982,13 +950,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1010,11 +976,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1034,13 +998,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1062,11 +1024,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1086,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1114,11 +1072,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1138,13 +1094,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1164,13 +1118,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1190,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1216,13 +1166,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1242,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1268,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1294,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1320,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1346,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1372,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1398,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1424,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1450,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1476,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1502,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1528,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1554,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1580,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1606,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1632,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1658,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1684,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1710,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1738,11 +1648,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1762,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" t="s">
-        <v>56</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1788,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1814,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1840,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
         <v>55</v>
-      </c>
-      <c r="G42" t="s">
-        <v>56</v>
-      </c>
-      <c r="H42" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1866,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1892,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" t="s">
-        <v>56</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1918,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1944,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" t="s">
-        <v>56</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1970,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1996,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" t="s">
-        <v>56</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2022,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2048,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" t="s">
-        <v>56</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2074,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2100,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" t="s">
-        <v>56</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2126,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2152,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>55</v>
-      </c>
-      <c r="G54" t="s">
-        <v>56</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2180,11 +2056,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2204,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
-      </c>
-      <c r="G56" t="s">
-        <v>75</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2232,11 +2104,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2256,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" t="s">
-        <v>75</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2284,11 +2152,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2308,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
         <v>74</v>
-      </c>
-      <c r="G60" t="s">
-        <v>75</v>
-      </c>
-      <c r="H60" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2334,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>55</v>
-      </c>
-      <c r="G61" t="s">
-        <v>56</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2362,11 +2224,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2386,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>55</v>
-      </c>
-      <c r="G63" t="s">
-        <v>56</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2414,11 +2272,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2440,11 +2296,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2464,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2492,11 +2344,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2516,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2544,11 +2392,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2568,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2596,11 +2440,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2620,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2648,11 +2488,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2672,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2700,11 +2536,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2724,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2750,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2776,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2802,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2828,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2854,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2880,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2906,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2932,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2958,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2984,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3010,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3036,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3062,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3088,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3114,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3140,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3166,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3192,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3218,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3244,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3270,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3296,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3322,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3348,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3374,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3400,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3426,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3452,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3478,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3504,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3532,11 +3304,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3556,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3584,11 +3352,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99850.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99850.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Salmon. The subcommittee will come to order.    Members will be permitted to submit written statements to be included in the official hearing record. Without objection, the hearing record will remain open for 5 calendar days to allow statements, questions, and extraneous materials for the record, subject to the length limitation in the rules.    Good afternoon. And today, the subcommittee examines the administration's Fiscal Year 2017 budget request for the East Asia and Pacific region.    As we continue into what some are calling the Asian Century, U.S. annual expenditures for East Asia and Pacific are more and more important. Having lived in and traveled extensively throughout Asia, I firmly believe this region is driving the world's future. Our trade with Asia last year was more than $1.4 trillion, and 40 percent of the world's trade passes through the South China Sea alone.    The Obama administration has pushed efforts of its Asia rebalance to facilitate U.S. engagement in the region in both security and economic advancement, yet even after all the administration's rhetoric, this bureau remains the second-smallest of the State's six regional bureaus. While an increase in high-level regional attention is important, the day-to-day resources on the ground have got to match the commitment. I look forward to the witnesses' justification of this discrepancy today.    Most Members of Congress agree with the administration's call for greater engagement with the Asia-Pacific region to stimulate closer integration among our allies and partners to promote democracy and rule of law. Congress must play an important role in this conversation, and it is imperative, especially in light of our continuing fiscal challenges, that U.S. investment in the region be both effective and efficient.    Clearly, the Asia-Pacific region faces enormous challenges. In a speech given earlier this month, Secretary of Defense Ash Carter outlined the five main challenges that the United States faces today. Two of them are situated in the Asia-Pacific. The continued provocations of North Korea's rogue regime and the threat that the South China Sea, one of the world's busiest waterways, could be militarized. Secretary Carter went on to describe the region as the single-most consequential region of the world for America's future.    On North Korea I commend Chairman Royce's leadership in increasing sanctions on this rogue regime. I would be proud to join him in that effort, and now I am eager to see the implementation of this important new law.    China's actions in the South China Sea continue to raise the risk of conflict while simultaneously jeopardizing the international rights, freedoms, and order. As China continues its alarming trend of militarizing the South China Sea, the United States must be firm in its resolve to support international norms.    While I support the freedom of navigation exercises recently conducted by the U.S. Navy, I would like to see even more strategic clarity from the administration on the issue of the South China Sea to ensure international norms and the rule of law are followed.    Resourcing diplomatic and development responses to such challenges can be especially difficult in the region because strategic priorities do not always map directly to budget priorities. We must work closely with our regional partners, who continue calls for our assistance on issues like the South China Sea through programs such as the 5-year Southeast Asia Maritime Security Initiative, which seeks to foster regional stability by improving the maritime capabilities of our partners. I hope to hear from our panel more about this initiative and others specific to the South China Sea conflict.    The region faces a plethora of additional challenges from the growing threat of radical Islamist terrorist organizations and the influence of ISIS to the difficulty of establishing a region-wide system of trade rules that are free, fair, and uphold high standards. Our trade agreements help strengthen institutions and the rule of law while deepening our ties with our trading partners and regional allies.    I continue to support the Trans-Pacific Partnership and believe it will ultimately assist in regional economic trade activity, heightened regional trade standards, and promote increased economic growth for both the U.S. and our trade partners.    I was recently at a symposium put on by the McLean Institute in Sedona, Arizona, and James Clapper was there. And I remember him saying that TPP is probably worth three aircraft carrier or is the equivalent of three aircraft carrier. I am interested in hearing the panel's thoughts on utilizing development assistance funding to bring non-TPP members closer to TPP standards.    We were also in Indonesia, and they are interested in a second round. Their President, in meeting with President Obama in January, identified that they would like to be part of a second round. Philippines is very, very interested, Taiwan. You know, it is going to be interesting to see how it all plays out, but I think all of them are looking with great anticipation for this to finally be ratified and move on and see other opportunities arise in the days and years to come.    And today, we are going to discuss the many challenges and opportunities we face in the region and the administration's commitment to the rebalance in the context of the Fiscal Year 2017 budget request for East Asia and Pacific region. Given the heightened challenges in the region, the United States must fully commit to increasing integration amongst our allies and partners and continuing to promote peace and democracy. Making sure we understand these missions from a place of organization, efficiency, and effectiveness is equally important, so I am really grateful for our witnesses' willingness to join us today.    And I would like to recognize Mr. Sherman for any comments he might have.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Sherman. Thank you.    We can all agree on the importance of the East Asia-Pacific region. It is a diverse and dynamic region. We have seen significant progress there politically. We have seen democracy in Burma or Myanmar move forward. But keep in mind, democracy is not touted as a system that necessarily protects minority rights. And the Rohingya continue to suffer, whether it is from the military or even from some of the democratic leaders in Myanmar/Burma.    The economic progress has been more than significant. World Bank says extreme poverty in the region has dropped from 29 percent in 2002 to 4 percent in 2014.    While we all agree that the region is important, I think we are going down the wrong path because we are being war hawks about some islets that remain uninhabited to this day. That is how useless they are. And we are incredibly doves when it comes to jobs for the American people. You would think that the American Government might have lost touch with the citizens it claims to represent, which I think is obvious to anyone looking at our current political system.    Looking first at these maritime disputes, we have to be careful about how we deploy our limited resources. Pivot to Asia should mean we send a trade delegation to Tokyo to say we have got to deal with this trade deficit rather than sending aircraft carriers to defend islets for Japan that they are unwilling to defend at their own cost.    Let's look at these islets. There is no oil. If there was any oil, it is not our oil. And the countries who say that it would be their oil are unwilling to increase their defense budgets but are banking on their ability to redirect our defense budget because, while our defense budget may not increase, our allocation of it to protect their islets, which have their oil but there is no oil is their best investment.    And Japan, for example, continues to have a 1 percent GDP ceiling on what they spend for their own defense.    The chairman brings up the trade agreement, as our witnesses do in their opening statement. This is a trade agreement so manifestly against American interests that everyone running for President swears they are against it even those who may think otherwise. The American people will see this agreement become law only through chicanery and trickery like ratification during a lame-duck session.    I hope that we can put enough light on this so we not only ask candidates for President where do they stand on it, but we get a clear statement from every candidate for President will they withdraw from it if chicanery is used to ratify it during the month of December of this year.    This agreement is so terrible for American working families that it is being sold as good national security policy. Suffer for your country; your country needs you. This is terrible national security policy.    First, it is a Trojan horse for China to bring its imports into the United States, goods that are admitted to be 60 percent made in China. In reality, 80 or 90 percent made in China get fast-tracked into the United States with no supervision and no tariff, a one-way free trade agreement for China.    Second, this deal puts the U.S. Government's stamp of approval on the idea that trade agreements don't control currency manipulation. So the idea that we should be so proud that we wrote the rules, no, these are Wall Street's rules that have mutilated the American middle class. We shouldn't be proud for passing them, and oh, by the way, the one rule China wanted we wrote for them even though they didn't even have to show up for the negotiations. And the key thing, the most important part of this agreement is the part that is not in it, nothing on currency manipulation.    As to North Korea, we clearly have a problem. What worries me most is that North Korea will sell fissile material or a nuclear weapon. In 2007, Israel destroyed a nuclear facility, a nuclear bomb facility in Syria. What is less well-known is that it was all North Korean equipment and technology.    North Korea was only willing to sell technology and equipment in 2007 because they didn't have very mean weapons and they needed nuclear weapons in their own belief to defend themselves from us. They now have 12 nuclear weapons. They will be developing three a year or at least enough fissile material for three a year. I don't know whether the next one goes on eBay, but I do know that the amount North Korea would demand would exceed the resources of ISIS or any other terrorist non-state actor, but Iran and other state actors would have enough money to really interest the North Koreans.    Finally, as Washington warned us, we have to avoid the tendency of many countries to go looking for dragons to slay--funny that he used the term dragon--looking for enemies we don't need.    China has domestic political problems, so they fan nationalism over islets. We do the same thing perhaps for our own political reasons. We were told that these islets, for example, sit astride trade routes involving hundreds of billions of dollars of trade. Yes, it is all trade in and out of Chinese ports, and if China had military control of these islands, they could blockade their own ports.    So we exaggerate the importance of these islets in order to meet domestic political needs. What the Pentagon needs politically most is a worthy adversary. They don't like focusing their attention on non-uniformed, asymmetrical opponents. China offers the only hope of a worthy uniformed opponent. We don't need another opponent. We need to calm down and realize these islets are islets that remain uninhabited even though they are off the coast of the most populated continent for a reason.    And I realize that our hearing today is about the State Department and a USAID budget, but the Pentagon budget follows foreign policy or at least it should, and that is the big budget we have got to worry about.    I yield back.</t>
   </si>
   <si>
@@ -67,12 +82,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Russel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Russel. Chairman Salmon, Ranking Member Sherman, members of the subcommittee, thanks very much for your leadership in supporting strong U.S. relations with the East Asia and Pacific region. Thank you also for the opportunity to testify today about our progress in the rebalance and the relevance of the President's 2017 budget request.    And, Mr. Chairman, if I may in particular thank you for your tremendous leadership of this subcommittee and your strong support for our engagement in the Asia-Pacific. You will be sorely missed in Fiscal Year 2017 when this budget is realized.    This is also the last budget for President Obama, and so I would like to start with just a quick recap of what we think we have accomplished with your support over the last 7 years and the foundation that we think that we can lay through this budget for the next administration.    First, since security starts with friends, we modernized our longstanding treaty alliances with Japan, South Korea, Australia, and the Philippines, and we forged new security partnerships at the same time that we developed existing ones with partners like Singapore and New Zealand. This makes us much more effective in addressing both conventional security threats but also other threats such as countering violent extremism, blocking the flow of foreign terrorist fighters, preventing human trafficking, and other transnational crimes.    Second, to create jobs at home and to secure our standing in the region, we stepped up economic engagement, concluding the U.S.-Korea Free Trade Agreement, revitalizing APEC, pursuing a new bilateral investment treaty with China, and most important, negotiating the Trans-Pacific Partnership, which is a new kind of economic agreement that sets high standards for protecting workers and the environment while at the same time supporting job-creating small businesses and an open internet.    Third, we have helped build up the region's institutions and support rule of law and peaceful dispute resolution. Our investments in ASEAN and the region-wide East Asia Summit have renewed confidence in American leadership and strengthened the region's ability to deal with tensions like those in the South China Sea.    Fourth, we have engaged intensely with China, investing the time to get to know its leaders, to advance cooperation, and to put a floor under the relationship so that it can withstand tensions. While serious concerns in areas like human rights and China's behavior with regard to maritime disputes with its neighbors remain, we have worked toward cooperative engagement on areas like cybersecurity, on shared proliferation concerns with Iran and North Korea, global health, climate change, and others.    Fifth, we have upgraded relations with emerging partners like Indonesia, Malaysia, Vietnam. We have importantly supported the democratic transition in Burma and promoted democracy, good governance, and universal values and human rights as an essential element of our policy.    The support and the funding provided by Congress has of course been essential, and the $1.57 billion East Asia-Pacific request for 2017 builds on these accomplishments, including by addressing maritime security concerns and promoting economic opportunities.    The $873 million in foreign assistance request supports and expands on our objectives of regional security cooperation, advancing economic growth and trade, promoting democratic development, strengthening regional institutions, as well as addressing war legacies. The other $646 million provides essential increased funding for personnel, operations, and public diplomacy to meet growing demands driven by the rebalance.    Now, contested maritime claims in Southeast Asia and destabilizing actions such as Chinese land reclamation, construction, and militarization of disputed areas make it harder for countries in the region to resolve disagreements peacefully. And the lack of maritime domain awareness also encourages trafficking, piracy, and illegal fishing.    So the President's 2017 budget request will support our work with regional partners to build their capacity to maintain free and open access to the maritime domain through enhanced maritime security capabilities and maritime domain awareness.    Thank you very much, and I look forward to answering any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr.  Salmon. Thank you, Mr. Russel.    Mr. Stivers?</t>
   </si>
   <si>
+    <t>Stivers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Stivers. Chairman Salmon, Ranking Member Sherman, distinguished members of the subcommittee, thank you for the invitation to testify today on the role of USAID in advancing U.S. foreign policy priorities in East Asia and the Pacific.    President Obama's budget request for the East Asia-Pacific region is $873 million. That is a 12 percent increase over Fiscal Year 2015. This request is in recognition that America's security and prosperity are inextricably tied to the region, and it enables us to consolidate our gains and strengthen the Asia-Pacific Rebalance policy.    In the coming years, the countries of this region are expected to continue high growth rates and play an increasingly pivotal role in world affairs. But just how this region's development and economic growth take shape is critical to our own future.    Already home to a majority of humanity, by 2030 Asia is projected to add more people than any other region, putting unprecedented pressure to provide access for energy, clean water, food, quality education, and health care.    But despite the impressive gains of the region, they continue to grapple with evermore complex development challenges, including severe economic disparities, food scarcity, urbanization, poor governance, and suffocating pollution and environmental degradation. Human trafficking continues to be an enormous problem, and an unacceptable proportion of women in the region continue to experience gender-based violence.    At USAID, our mission is to end extreme poverty and promote resilient, democratic societies while advancing our security and prosperity. At its core, the Asia-Pacific Rebalance is about strengthening our relationships not only with countries, but more specifically, with the people of the region in an effort to improve their lives.    We employ three primary approaches. First, we are pioneering a new model of development that focuses on maximizing our impact and our funding through public-private partnerships, science, innovation, and regional solutions.    Second, we are building pathways out of poverty through Global Health, Feed the Future, and Global Climate Change.    And last, we are empowering reformers to improve democratic governance and human rights. And for this reason, this budget request includes significant increases in democratic governance and human rights in almost every country in the region.    Next, a brief overview of the key countries: In Burma, the November elections resulted in the first civilian-led government in more than 50 years. USAID was proud to be the lead donor, providing $18 million in support of the election, including: Incorporating international standards in the election procedures, training poll workers, political parties, election observers; and voter education and supporting more than 300 civil society organizations. We helped digitize 33 million names from scratch into the voter list in a country with few computers and hundreds of dialects.    We know that democracy is about more than just elections though, which is why our support for this next phase of the democratic transition is so important. The people of Burma have high expectations and low capacity to deal with the challenges on almost every front. The government has prioritized issues such as national reconciliation, reform of the political power structures, economic growth, agricultural development, and health care. USAID will continue our strong support for the people of Burma on each of these priorities through our budget request.    We remain deeply concerned about the humanitarian and human rights situation in Rakhine State, and USAID continues to support vulnerable populations throughout the country, including the Rohingya.    In Cambodia, our primary goal is supporting and transitioning to a democracy that respects human rights. Civil society, while not fully respected there, has grown in vibrancy and strength in recent years thanks in part to our assistance. On food security, our Feed the Future initiative has helped increased yields and drive down malnutritional stunting in children under 5 by 21 percent in the areas where we work.    Indonesia's continued progress and democratic system set an example for its neighbors, but the country faces major governance, economic, and security challenges that could undermine its young democracy. Our anti-corruption investments have resulted in increased prosecution and the country's ranking on the Transparency International's Corruption Index has improved by 30 spots.    On health, we have helped Indonesia become polio-free. And last year's devastating forest and peat fires cost the country over $16 billion. We partnered with the U.S. Forest Service to send forest specialists, but we know that prevention is the key to solving this challenge.    USAID is supporting something called the Indonesia Palm Oil Pledge, which is an innovative commitment by the world's leading palm oil producers to transition to sustainable production.    In the Philippines, our Partnership for Growth initiative has helped address the main impediments to inclusive and sustainable growth. The results have been striking. Philippines has emerged as one of the fastest-growing economies and a more reliable trade and investment partner. And for the first time, the country received investment-grade sovereign debt ratings from three of the world's leading credit agencies. Yet, lack of formal access to land is a key driver of poverty, a driver of conflict, and an obstacle to national development.    In Vietnam, USAID supports the implementation of reforms critical to potential TPP participation, including launching a new labor program this year that will support the rights of workers and improve working conditions. In addition, USAID is focused on addressing war legacies, health and disabilities, and reducing susceptibility to climate change and natural disasters.    Mr. Chairman, committee, in an interconnected world, development plays an indispensable role alongside defense and diplomacy in advancing our security and prosperity. While we must focus on immediate crises throughout the world, it is also essential that we address the root causes of poverty, conflict, and instability, to help shape a better future for humanity. That is the heart of our work in the East Asia-Pacific region.    Thank you, and I look forward to your counsel and questions.</t>
   </si>
   <si>
@@ -172,6 +193,12 @@
     <t>412395</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Brooks. I hope it will be short.    I am looking at what committee staff has given me, and tell me if I have got it correct, that this hearing does not include anything in the Near East but rather it is limited to East Asia and the Pacific?</t>
   </si>
   <si>
@@ -224,6 +251,12 @@
   </si>
   <si>
     <t>412272</t>
+  </si>
+  <si>
+    <t>Connolly</t>
+  </si>
+  <si>
+    <t>Gerald</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr.  Connolly. Mr. Chairman, I promise I am just going to take a minute----</t>
@@ -734,7 +767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,7 +775,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,2597 +797,3054 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
         <v>16</v>
       </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G44" t="s">
+        <v>59</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G46" t="s">
+        <v>59</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G48" t="s">
+        <v>59</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G50" t="s">
+        <v>59</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>51</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G52" t="s">
+        <v>59</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>51</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G54" t="s">
+        <v>59</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G56" t="s">
+        <v>79</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G58" t="s">
+        <v>79</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>69</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G60" t="s">
+        <v>79</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>51</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G61" t="s">
+        <v>59</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G63" t="s">
+        <v>59</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
       <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
       <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
       <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
       <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
       <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G93" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
       <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>22</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
       <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
       <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
       <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
       <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
       <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
       <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>17</v>
+      </c>
       <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>123</v>
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99850.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99850.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Salmon</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Sherman</t>
   </si>
   <si>
@@ -191,6 +200,9 @@
   </si>
   <si>
     <t>412395</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Brooks</t>
@@ -767,7 +779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,7 +787,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,3051 +812,3292 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G39" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I42" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G46" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H46" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G48" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H48" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G50" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H50" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G52" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G54" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H54" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G58" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G60" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G61" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H61" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G63" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H63" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>22</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>25</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>22</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>22</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>25</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>22</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>25</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>25</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>25</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H86" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I86" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>22</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I88" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I92" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>22</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>25</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I94" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>22</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>25</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I96" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>22</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>25</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I98" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>25</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I100" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>22</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>25</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G102" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I102" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>22</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>25</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H104" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I104" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>22</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>25</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G106" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I106" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G108" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I108" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>134</v>
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
